--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_34.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2811148.500535802</v>
+        <v>2805370.962535076</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847138</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.093379124</v>
+        <v>419463.0933791238</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7682828.301567107</v>
+        <v>7681648.342786268</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>17.56488544122148</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>206.3670033956577</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>74.86702424530502</v>
       </c>
       <c r="H3" t="n">
-        <v>21.24059023834362</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159196</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>125.6476561767118</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>279.4398392508593</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>83.84708725779225</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794509</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348900367</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>177.7856699752783</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>381.7228736769095</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.4554403760233</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384598</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
-        <v>124.146456540944</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
         <v>273.2977702070789</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C13" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507368</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H13" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049596</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173265</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T14" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>149.9347764475702</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142884</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C16" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H16" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049596</v>
@@ -1844,25 +1844,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658105</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="23">
@@ -2318,25 +2318,25 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723281</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277188</v>
       </c>
       <c r="C32" t="n">
-        <v>279.657375128174</v>
+        <v>273.2139126555346</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689348</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806961</v>
+        <v>282.5278558080568</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313973</v>
+        <v>296.6956602587579</v>
       </c>
       <c r="G32" t="n">
-        <v>299.4447566029521</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752495</v>
+        <v>204.8123861026101</v>
       </c>
       <c r="I32" t="n">
-        <v>27.36737438453505</v>
+        <v>20.92391191189569</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443518</v>
+        <v>48.81858568179581</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622527</v>
+        <v>105.2357625896134</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158226</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.099369849592</v>
+        <v>222.6559073769527</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548313</v>
       </c>
       <c r="X32" t="n">
-        <v>275.971707662349</v>
+        <v>269.5282451897096</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346801</v>
+        <v>276.4959681620408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.7695671504635</v>
+        <v>67.32610467782413</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074591</v>
+        <v>52.47323292810654</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258563</v>
+        <v>38.04694813994627</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546475</v>
+        <v>37.97339019282538</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523201</v>
+        <v>39.72284161259265</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762415</v>
+        <v>50.54167953498478</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419619</v>
+        <v>37.89393170155682</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536812</v>
+        <v>15.73364728272875</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982404</v>
+        <v>6.632145647184672</v>
       </c>
       <c r="S34" t="n">
-        <v>91.20155162535136</v>
+        <v>84.75808915271199</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.3320274868841</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865933</v>
+        <v>166.5545700139539</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008199</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942094</v>
+        <v>164.46726422157</v>
       </c>
       <c r="X34" t="n">
-        <v>122.153147640922</v>
+        <v>115.7096851682826</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175983</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3743,7 +3743,7 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.119878025267</v>
+        <v>1.098310803921322</v>
       </c>
       <c r="E41" t="n">
         <v>302.090850164389</v>
@@ -3755,10 +3755,10 @@
         <v>312.564288486645</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589423</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822793</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
         <v>242.2189017332849</v>
@@ -3806,7 +3806,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>178.0576208899019</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415637</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443878</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627851</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915763</v>
+        <v>57.53638454915762</v>
       </c>
       <c r="F43" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892489</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131702</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788906</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906099</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351693</v>
+        <v>26.19514000351691</v>
       </c>
       <c r="S43" t="n">
         <v>104.3210835090442</v>
@@ -3980,7 +3980,7 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>41.58521707215039</v>
       </c>
       <c r="E44" t="n">
         <v>302.090850164389</v>
@@ -3992,7 +3992,7 @@
         <v>312.564288486645</v>
       </c>
       <c r="H44" t="n">
-        <v>109.966797110278</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812804</v>
       </c>
       <c r="T44" t="n">
         <v>124.7987569459456</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415639</v>
+        <v>86.88909903415636</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443879</v>
+        <v>72.03622728443877</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627852</v>
+        <v>57.60994249627849</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915763</v>
+        <v>57.5363845491576</v>
       </c>
       <c r="F46" t="n">
-        <v>59.2858359689249</v>
+        <v>59.28583596892487</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131703</v>
+        <v>70.10467389131701</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788908</v>
+        <v>57.45692605788905</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906101</v>
+        <v>35.29664163906098</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351693</v>
+        <v>26.1951400035169</v>
       </c>
       <c r="S46" t="n">
         <v>104.3210835090442</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1686.049267426069</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.873765929</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.131457402513</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="E2" t="n">
-        <v>872.547932519058</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490358</v>
+        <v>777.7441318441286</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703889</v>
+        <v>364.5813763321316</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J2" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K2" t="n">
-        <v>546.1228674733288</v>
+        <v>242.2021271932834</v>
       </c>
       <c r="L2" t="n">
-        <v>546.1228674733288</v>
+        <v>735.5224189118122</v>
       </c>
       <c r="M2" t="n">
-        <v>625.6413842912893</v>
+        <v>1236.689201907263</v>
       </c>
       <c r="N2" t="n">
-        <v>1151.464273687146</v>
+        <v>1236.689201907263</v>
       </c>
       <c r="O2" t="n">
-        <v>1591.503874579474</v>
+        <v>1676.728802799591</v>
       </c>
       <c r="P2" t="n">
-        <v>1939.691366710996</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137466</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S2" t="n">
-        <v>2086.544013137466</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T2" t="n">
-        <v>2086.544013137466</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U2" t="n">
-        <v>2086.544013137466</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V2" t="n">
-        <v>2086.544013137466</v>
+        <v>999.0496848552192</v>
       </c>
       <c r="W2" t="n">
-        <v>2086.544013137466</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="X2" t="n">
-        <v>2086.544013137466</v>
+        <v>790.5981662737468</v>
       </c>
       <c r="Y2" t="n">
-        <v>2086.544013137466</v>
+        <v>790.5981662737468</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163394</v>
+        <v>657.7430775364696</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764316</v>
+        <v>507.0888470965618</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979119</v>
+        <v>376.9998797180422</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087996</v>
+        <v>240.5533888289299</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019193144</v>
+        <v>116.1215827120617</v>
       </c>
       <c r="G3" t="n">
-        <v>63.94588019193144</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703889</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703889</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>42.49073853703889</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>568.3136279328951</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>968.0301839896753</v>
+        <v>1138.346177012113</v>
       </c>
       <c r="O3" t="n">
-        <v>1484.550466580656</v>
+        <v>1384.929834659825</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297054</v>
+        <v>1790.551203376222</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750009</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649878</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848786</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527428</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898495</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031782</v>
+        <v>1026.364372110951</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817934</v>
+        <v>837.0572944609623</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094573007</v>
+        <v>657.7430775364696</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.49073853703889</v>
+        <v>241.0817140065311</v>
       </c>
       <c r="C4" t="n">
-        <v>42.49073853703889</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="D4" t="n">
-        <v>42.49073853703889</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="E4" t="n">
-        <v>42.49073853703889</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="F4" t="n">
-        <v>42.49073853703889</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="G4" t="n">
-        <v>42.49073853703889</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="H4" t="n">
-        <v>42.49073853703889</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703889</v>
+        <v>70.87659607252031</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>658.4989693204923</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>392.5196241413165</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>265.6027997203955</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>265.6027997203955</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>42.49073853703889</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1664.277728513116</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="C5" t="n">
-        <v>1664.277728513116</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.836599729783</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="E5" t="n">
-        <v>876.2530748463278</v>
+        <v>551.2091433733608</v>
       </c>
       <c r="F5" t="n">
-        <v>593.9906109565709</v>
+        <v>538.3551089437426</v>
       </c>
       <c r="G5" t="n">
-        <v>180.8278554445741</v>
+        <v>125.1923534317457</v>
       </c>
       <c r="H5" t="n">
-        <v>180.8278554445741</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074504</v>
       </c>
       <c r="K5" t="n">
-        <v>546.1228674733288</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>1039.443159191858</v>
+        <v>990.7164596631923</v>
       </c>
       <c r="M5" t="n">
-        <v>1565.266048587714</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="N5" t="n">
-        <v>1565.266048587714</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579474</v>
+        <v>1491.883242658643</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710996</v>
+        <v>1840.070734790165</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137466</v>
+        <v>1986.923381216635</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078517</v>
+        <v>1820.409826157686</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078517</v>
+        <v>1596.909223717102</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.277728513116</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.277728513116</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.277728513116</v>
+        <v>1341.156494151701</v>
       </c>
       <c r="X5" t="n">
-        <v>1664.277728513116</v>
+        <v>951.7038890847576</v>
       </c>
       <c r="Y5" t="n">
-        <v>1664.277728513116</v>
+        <v>951.7038890847576</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622214</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223136</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437939</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>318.8743002546817</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>194.4424941378135</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245264</v>
+        <v>74.38267620967791</v>
       </c>
       <c r="H6" t="n">
-        <v>91.8779925251273</v>
+        <v>74.38267620967791</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567663</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>155.6057207567663</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>155.6057207567663</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>442.207294593819</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896753</v>
+        <v>1458.08532307434</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580656</v>
+        <v>1619.294926214716</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297054</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851944</v>
+        <v>2024.916294931113</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851944</v>
+        <v>2000.999251829178</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851944</v>
+        <v>1866.068574729047</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927955</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606597</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.481617977664</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327675</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031827</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="C7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="D7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="E7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703889</v>
+        <v>40.49832589862226</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>741.1216772611406</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>505.4026254293747</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>505.4026254293747</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>505.4026254293747</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>222.0722233605523</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>42.49073853703889</v>
+        <v>225.7063445899235</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.49073853703889</v>
+        <v>225.7063445899235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1980.069844797474</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>1586.894343300404</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>1201.453214517072</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>1201.453214517072</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712875</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415868</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
         <v>1577.42141205333</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2365.64850507718</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.64850507718</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>559.0882834477352</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>388.8831655137244</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>233.2500524162392</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>682.7806474639203</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>682.7806474639203</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>682.7806474639203</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1642.069506034397</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1343.834685824516</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D11" t="n">
-        <v>1053.334238328372</v>
+        <v>731.4357765463919</v>
       </c>
       <c r="E11" t="n">
-        <v>745.6913947321048</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7376375492709</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5155633244623</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H11" t="n">
         <v>105.5155633244623</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>3105.956385205776</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2945.144336927563</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2819.743875775095</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2543.685522030571</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2249.173598250816</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1947.623570458605</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551007</v>
       </c>
       <c r="C13" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082783</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979815</v>
       </c>
       <c r="E13" t="n">
-        <v>296.509367644372</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445333</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G13" t="n">
-        <v>160.8107415311672</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H13" t="n">
-        <v>100.2728717798495</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,22 +5200,22 @@
         <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791389</v>
+        <v>557.4621512791398</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469763</v>
+        <v>836.8050913469772</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5227,22 +5227,22 @@
         <v>1541.36759087432</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329743</v>
       </c>
       <c r="U13" t="n">
         <v>1210.091109858832</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852105</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592137</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1871.211875180718</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C14" t="n">
-        <v>1572.977054970837</v>
+        <v>1021.936224042536</v>
       </c>
       <c r="D14" t="n">
-        <v>1282.476607474693</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G14" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244623</v>
@@ -5309,19 +5309,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2754.374321141661</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2478.315967397137</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2478.315967397137</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y14" t="n">
-        <v>2176.765939604926</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D16" t="n">
         <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5461,7 +5461,7 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
@@ -5473,13 +5473,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852099</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803421</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924251</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5543,13 +5543,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>207.7175872278004</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L18" t="n">
-        <v>691.2836731261136</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1319.055322752795</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,49 +5674,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364858</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N19" t="n">
-        <v>683.142663665514</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498591</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975438</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.67184050993</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803416</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5774,16 +5774,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>318.9689542635005</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924233</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6008,7 +6008,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R23" t="n">
         <v>3105.956385205777</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6072,19 +6072,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.93197918856</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369576</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218807</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407269</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462926</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,49 +6148,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974529</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6239,10 +6239,10 @@
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>358.2210070908127</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>841.787092989126</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985354</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.755098887807</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879683</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988167</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026484</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,22 +6464,22 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6497,13 +6497,13 @@
         <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6546,19 +6546,19 @@
         <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>841.787092989126</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6619,7 +6619,7 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192011</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.36701308464</v>
+        <v>1719.814764781097</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634092</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600046</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144939</v>
+        <v>890.2201666674337</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423753</v>
+        <v>590.5275805474762</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282823</v>
+        <v>294.5666773855442</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267692</v>
+        <v>87.68547930209931</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304554</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J32" t="n">
-        <v>310.9628692786736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>778.4357329465209</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1380.246532305435</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1926.247432350016</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987478</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879807</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011328</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152277</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152277</v>
+        <v>3327.510737231446</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.311118491231</v>
+        <v>3278.199034522561</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448552</v>
+        <v>3171.900284432043</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281054</v>
+        <v>3033.349407216706</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382476</v>
+        <v>2808.44445027029</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588642</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079628</v>
+        <v>2282.396514871763</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398133</v>
+        <v>2003.107658142429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155368</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986686</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321164</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304554</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304554</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>68.54262738304554</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="L33" t="n">
-        <v>552.1087132813587</v>
+        <v>499.4043430265828</v>
       </c>
       <c r="M33" t="n">
-        <v>1179.88036290804</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590221</v>
+        <v>341.6872565554786</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229151</v>
+        <v>288.6839909715326</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233336</v>
+        <v>250.2527302241121</v>
       </c>
       <c r="E34" t="n">
-        <v>239.92237488044</v>
+        <v>211.8957704333794</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913167</v>
+        <v>171.7716879964172</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886661</v>
+        <v>120.7194864459275</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806385</v>
+        <v>82.44278775748624</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304554</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304554</v>
+        <v>66.55021474462892</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929874</v>
+        <v>148.3852558545708</v>
       </c>
       <c r="L34" t="n">
-        <v>314.5053083667872</v>
+        <v>312.5128957283706</v>
       </c>
       <c r="M34" t="n">
-        <v>529.4300376112103</v>
+        <v>613.6740095549331</v>
       </c>
       <c r="N34" t="n">
-        <v>821.1101792828051</v>
+        <v>810.7134513543728</v>
       </c>
       <c r="O34" t="n">
-        <v>1092.305453964899</v>
+        <v>1088.287753884379</v>
       </c>
       <c r="P34" t="n">
-        <v>1320.672127381863</v>
+        <v>1323.033455149256</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.5848313923</v>
+        <v>1326.455651519307</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.37714642278</v>
+        <v>1319.756514501949</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003233</v>
+        <v>1234.142283034563</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569371</v>
+        <v>1115.625083552862</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209176</v>
+        <v>947.3881441448277</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279041</v>
+        <v>798.6106513157167</v>
       </c>
       <c r="W34" t="n">
-        <v>699.5599937569855</v>
+        <v>632.4821015969592</v>
       </c>
       <c r="X34" t="n">
-        <v>576.1729759378724</v>
+        <v>515.603631730007</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524195</v>
+        <v>409.6934228967151</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6956,10 +6956,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1458.313011372373</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,16 +7099,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879423</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296503</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7254,22 +7254,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>689.8907773307967</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1862.189031132337</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7339,13 +7339,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P40" t="n">
         <v>1094.779966106229</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1812.812015342702</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835766</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042567</v>
+        <v>1043.331955516592</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492443</v>
+        <v>738.1896826232701</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693553</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474917</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V41" t="n">
-        <v>2861.290827899428</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2587.733044857849</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2295.721691781039</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>2115.865509063966</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>175.2341099238429</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>803.0057595505241</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.783730761083</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1975.304013352064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344863</v>
+        <v>475.5803720344861</v>
       </c>
       <c r="C43" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690443</v>
+        <v>97.77230107690441</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016743929</v>
       </c>
       <c r="K43" t="n">
-        <v>245.5691623529112</v>
+        <v>245.5691623529107</v>
       </c>
       <c r="L43" t="n">
-        <v>505.1989733022405</v>
+        <v>505.1989733022401</v>
       </c>
       <c r="M43" t="n">
-        <v>786.9927227160341</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N43" t="n">
-        <v>1065.684527822773</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1323.891465940011</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P43" t="n">
-        <v>1539.269802792119</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
         <v>1638.194170237699</v>
@@ -7606,13 +7606,13 @@
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557613</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288777</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356542</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1409.24791294479</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C44" t="n">
-        <v>1113.513663437854</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D44" t="n">
-        <v>1113.513663437854</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>808.371390544532</v>
+        <v>697.293817705868</v>
       </c>
       <c r="F44" t="n">
-        <v>488.9182040646433</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>173.19670054278</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
         <v>62.11912770411553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.897034755326</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>2821.585557180058</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2576.919999873709</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W44" t="n">
-        <v>2303.36221683213</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2011.35086375532</v>
+        <v>1942.278560686505</v>
       </c>
       <c r="Y44" t="n">
-        <v>1712.301406666054</v>
+        <v>1643.229103597239</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>689.8907773307967</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1345.668748541356</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1862.189031132337</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344863</v>
+        <v>475.580372034486</v>
       </c>
       <c r="C46" t="n">
-        <v>402.8165060906087</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832566</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325923</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356985</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
         <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690443</v>
+        <v>97.7723010769044</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,7 +7807,7 @@
         <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.184768367679</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
         <v>564.8145793170083</v>
@@ -7816,13 +7816,13 @@
         <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.300133837541</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806887</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
         <v>1638.194170237699</v>
@@ -7840,16 +7840,16 @@
         <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
-        <v>1011.546168234451</v>
+        <v>1011.54616823445</v>
       </c>
       <c r="W46" t="n">
-        <v>825.6570181557615</v>
+        <v>825.6570181557611</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288779</v>
+        <v>689.0179479288774</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356544</v>
+        <v>563.3471387356541</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7979,16 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>200.688734882099</v>
       </c>
       <c r="L2" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>230.0467857572833</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507702</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.521353762298</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>489.1262098812174</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.761960553244</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8219,16 +8219,16 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>604.345144304512</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107134</v>
+        <v>655.9541253305056</v>
       </c>
       <c r="N5" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>176.0666919612279</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>381.8836612786582</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671527</v>
+        <v>591.6011865869449</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589657</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
-        <v>614.1534811140714</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8535,19 +8535,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>340.274574506989</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8772,22 +8772,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9243,22 +9243,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>236.6660863673584</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
         <v>90.98815315591399</v>
@@ -9477,13 +9477,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>349.0412045852374</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
         <v>92.38712204931191</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,10 +9720,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9732,10 +9732,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>377.3304183063258</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,22 +10194,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>543.2755872400993</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506555</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>136.3731801151489</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>691.2645480167034</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10683,7 +10683,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,13 +10902,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,16 +11136,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,7 +11154,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11373,7 +11373,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
@@ -11391,10 +11391,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364584</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404347</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>120.5480101882563</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385592</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>94.75969028163011</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213457</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.48690626822794</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25676,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812806</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>118.0013416284711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>285.119878025267</v>
+        <v>243.5346609531167</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>114.4085833486644</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>40.48690626822794</v>
+        <v>40.48690626822791</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812806</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>670631.8393726359</v>
+        <v>670030.2917588756</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>670631.8393726359</v>
+        <v>670030.2917588756</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>635922.6276439711</v>
+        <v>635922.627643971</v>
       </c>
     </row>
     <row r="7">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>613129.4055174134</v>
+        <v>613129.4055174135</v>
       </c>
       <c r="C2" t="n">
         <v>613129.4055174134</v>
       </c>
       <c r="D2" t="n">
-        <v>613129.4055174135</v>
+        <v>613129.4055174132</v>
       </c>
       <c r="E2" t="n">
         <v>576218.8171230102</v>
@@ -26326,34 +26326,34 @@
         <v>576218.8171230101</v>
       </c>
       <c r="G2" t="n">
+        <v>613129.4055174128</v>
+      </c>
+      <c r="H2" t="n">
+        <v>613129.4055174129</v>
+      </c>
+      <c r="I2" t="n">
         <v>613129.4055174127</v>
       </c>
-      <c r="H2" t="n">
-        <v>613129.4055174128</v>
-      </c>
-      <c r="I2" t="n">
-        <v>613129.4055174128</v>
-      </c>
       <c r="J2" t="n">
-        <v>613129.4055174132</v>
+        <v>613129.405517413</v>
       </c>
       <c r="K2" t="n">
         <v>613129.405517413</v>
       </c>
       <c r="L2" t="n">
-        <v>613129.4055174136</v>
+        <v>613129.4055174142</v>
       </c>
       <c r="M2" t="n">
-        <v>613129.4055174125</v>
+        <v>613129.4055174128</v>
       </c>
       <c r="N2" t="n">
         <v>613129.4055174127</v>
       </c>
       <c r="O2" t="n">
+        <v>578731.2680373654</v>
+      </c>
+      <c r="P2" t="n">
         <v>578731.2680373656</v>
-      </c>
-      <c r="P2" t="n">
-        <v>578731.2680373657</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.297134351</v>
+        <v>169649.0058765498</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602626</v>
+        <v>26460.41160941822</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377122</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301433</v>
+        <v>29094.95587301425</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469668</v>
+        <v>215329.5897923934</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670097</v>
+        <v>46725.80335481239</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436845</v>
+        <v>43782.97194555667</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015683</v>
+        <v>18983.55983015693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249331</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249331</v>
+        <v>198138.1733873963</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26430,25 +26430,25 @@
         <v>123047.6773561513</v>
       </c>
       <c r="G4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996331</v>
       </c>
       <c r="H4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996331</v>
       </c>
       <c r="I4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="N4" t="n">
         <v>147651.9979996332</v>
@@ -26457,7 +26457,7 @@
         <v>124722.2932551426</v>
       </c>
       <c r="P4" t="n">
-        <v>124722.2932551426</v>
+        <v>124722.2932551427</v>
       </c>
     </row>
     <row r="5">
@@ -26467,40 +26467,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814955</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814955</v>
+        <v>64406.32768295292</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="F5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58169.76931551965</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="H5" t="n">
-        <v>58169.76931551967</v>
-      </c>
-      <c r="I5" t="n">
-        <v>58169.76931551967</v>
-      </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.21346446771</v>
+        <v>60332.67530588339</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177186.0003699797</v>
+        <v>180935.8985705145</v>
       </c>
       <c r="C6" t="n">
-        <v>355181.2975043308</v>
+        <v>350584.9044470642</v>
       </c>
       <c r="D6" t="n">
-        <v>347581.8142900553</v>
+        <v>339845.525066663</v>
       </c>
       <c r="E6" t="n">
-        <v>267605.9191202376</v>
+        <v>267497.3585661364</v>
       </c>
       <c r="F6" t="n">
-        <v>398058.8502579497</v>
+        <v>397950.2897038485</v>
       </c>
       <c r="G6" t="n">
-        <v>378212.6823292456</v>
+        <v>378212.6823292457</v>
       </c>
       <c r="H6" t="n">
-        <v>407307.63820226</v>
+        <v>407307.6382022601</v>
       </c>
       <c r="I6" t="n">
-        <v>407307.63820226</v>
+        <v>407307.6382022598</v>
       </c>
       <c r="J6" t="n">
-        <v>179221.9948525105</v>
+        <v>185738.2800070838</v>
       </c>
       <c r="K6" t="n">
         <v>401067.8697994772</v>
       </c>
       <c r="L6" t="n">
-        <v>362173.5228668898</v>
+        <v>358124.6856564179</v>
       </c>
       <c r="M6" t="n">
-        <v>364576.3612678912</v>
+        <v>363524.6662567032</v>
       </c>
       <c r="N6" t="n">
         <v>407307.6382022598</v>
       </c>
       <c r="O6" t="n">
-        <v>379705.0071695154</v>
+        <v>379603.8361769267</v>
       </c>
       <c r="P6" t="n">
-        <v>398688.5669996724</v>
+        <v>398587.3960070839</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>93.99127447431648</v>
+      </c>
+      <c r="F2" t="n">
+        <v>93.99127447431648</v>
+      </c>
+      <c r="G2" t="n">
+        <v>130.3599693155843</v>
+      </c>
+      <c r="H2" t="n">
+        <v>130.3599693155843</v>
+      </c>
+      <c r="I2" t="n">
+        <v>130.3599693155843</v>
+      </c>
+      <c r="J2" t="n">
         <v>93.99127447431647</v>
-      </c>
-      <c r="F2" t="n">
-        <v>93.99127447431647</v>
-      </c>
-      <c r="G2" t="n">
-        <v>130.3599693155844</v>
-      </c>
-      <c r="H2" t="n">
-        <v>130.3599693155844</v>
-      </c>
-      <c r="I2" t="n">
-        <v>130.3599693155844</v>
-      </c>
-      <c r="J2" t="n">
-        <v>93.99127447431646</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,22 +26805,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.7828422880692</v>
+        <v>831.8776843078614</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126781</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304866</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087622</v>
+        <v>58.40725419351548</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165965</v>
+        <v>14.33013548902025</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769604</v>
+        <v>23.72944978769617</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630898</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559202</v>
+        <v>646.8007142757123</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455239</v>
+        <v>129.6883820257318</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126791</v>
+        <v>36.36869484126781</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304855</v>
+        <v>57.62257963304866</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630898</v>
+        <v>85.18305253651681</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>364.0218320542775</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>160.9220412857377</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>43.99219550354918</v>
       </c>
       <c r="H3" t="n">
-        <v>66.17385199706145</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427963</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>154.8494418714224</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>133.2856548344627</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>236.995132671382</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.34787464026243</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019407694</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>53.95384901956845</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.7669245773734</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27919,7 +27919,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.90049812836499</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -28074,7 +28074,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,40 +28755,40 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5.636002634528808</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634530428</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>35.71049010668813</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082793</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>9.379164112033322e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="24">
@@ -29193,34 +29193,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634530541</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,16 +29545,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J32" t="n">
-        <v>98.75804948161613</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>103.2865954513713</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29937,43 +29937,43 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>28.92237465268596</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="N34" t="n">
-        <v>109.5863713539248</v>
+        <v>13.98970481639435</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265641</v>
       </c>
     </row>
     <row r="35">
@@ -30022,7 +30022,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -30171,19 +30171,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N37" t="n">
-        <v>5.63600263452858</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30411,16 +30411,16 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P40" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561693055</v>
       </c>
       <c r="K43" t="n">
-        <v>36.24905561693102</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Q43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023187</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023187</v>
+        <v>36.24905561693058</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561693122</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023187</v>
+        <v>96.4668394702319</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34699,16 @@
         <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>57.63033170286164</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>80.32173415955607</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129861</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129861</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>403.7540970270507</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643551</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34939,16 +34939,16 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>451.0969745740204</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>26.50285453713156</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>289.4965392293462</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129861</v>
+        <v>506.2290737327783</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700768</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
-        <v>460.9053113835797</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35255,19 +35255,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35492,22 +35492,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
@@ -35583,10 +35583,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P13" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35659,13 +35659,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P14" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
@@ -35820,10 +35820,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P16" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>147.0691510340251</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,16 +36051,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094876</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716093</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>259.444269251904</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,7 +36288,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>220.7505244816469</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
         <v>164.3482495370789</v>
@@ -36297,10 +36297,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634530472</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K23" t="n">
         <v>362.6084404317796</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36452,10 +36452,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023943</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094893</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7334829729924</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,16 +36841,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>563.4149484039233</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36914,22 +36914,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>453.2152403831811</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964889</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>244.8689312077051</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>472.1948117857044</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>607.8896963221357</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,13 +37081,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>560.5142791723504</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>289.9992824624304</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>51.00106726098225</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>217.0956861054779</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>294.6264057288836</v>
+        <v>199.0297391913531</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910036</v>
+        <v>280.378083363643</v>
       </c>
       <c r="P34" t="n">
-        <v>230.6734074918829</v>
+        <v>237.1168699645223</v>
       </c>
       <c r="Q34" t="n">
-        <v>113.0431353640772</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37318,7 +37318,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O35" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P35" t="n">
         <v>351.7045375065877</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>598.8774259673916</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37403,7 +37403,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37467,19 +37467,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M37" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094874</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,16 +37707,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P40" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,7 +37874,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144771482</v>
       </c>
       <c r="K43" t="n">
-        <v>118.910713303741</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
         <v>262.2523342922519</v>
@@ -37953,10 +37953,10 @@
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>99.92360348038436</v>
+        <v>99.92360348038437</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38111,10 +38111,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.3923519980728</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38184,16 +38184,16 @@
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451907</v>
+        <v>221.2890899918894</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708371</v>
+        <v>99.92360348038439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
